--- a/output/20200415_JBC_MIBiG_validation_set.xlsx
+++ b/output/20200415_JBC_MIBiG_validation_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE9361B-01D8-B640-BA53-F70FD161BC6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7C5D6-DE96-3447-BB83-037DA9818971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22820" windowHeight="14640" xr2:uid="{B6752483-84B7-244F-8DEE-5CED96FC8E43}"/>
+    <workbookView xWindow="400" yWindow="1440" windowWidth="25200" windowHeight="14640" xr2:uid="{B6752483-84B7-244F-8DEE-5CED96FC8E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1448,8 +1448,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FD30A2-1A76-BD4D-8A3A-8FBA7C1A285C}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="13" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
